--- a/router/RiceHackathonFile.xlsx
+++ b/router/RiceHackathonFile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Compsci\HackRice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Compsci\HackRice\router\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC5A685-E8FC-4D59-A85F-51461F35DE91}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D55475-ABC5-4BBD-B455-B29B98C5B79B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{DA872241-5938-4975-B669-1DAED734A321}"/>
+    <workbookView xWindow="2920" yWindow="2840" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="4" xr2:uid="{DA872241-5938-4975-B669-1DAED734A321}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0DB88B-AC6A-43C1-9AFD-1A96E9A23D3F}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1111,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B3A477-3811-4597-BD1C-66A9637D67CF}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1337,7 +1337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F32FF5-CC5C-41C1-BDFE-3C5288199775}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -2149,21 +2149,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DDC701B4642764F93B0C996834AF5C7" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7ba1005b60fccd023c3316c347e5bac5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6c5579d5-a01f-4a8f-91a4-3da86c4ab182" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4f48eed001f7d7f93980a4b2998ff55" ns2:_="">
     <xsd:import namespace="6c5579d5-a01f-4a8f-91a4-3da86c4ab182"/>
@@ -2295,31 +2280,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47485D70-34CA-4767-A25A-B0BBEA8D4E3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c5579d5-a01f-4a8f-91a4-3da86c4ab182"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4207C8EB-E1DD-4B19-B2B0-6A4E9013FDCE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{817E8B64-DE18-4527-80CB-2270F2F430A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2335,4 +2311,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4207C8EB-E1DD-4B19-B2B0-6A4E9013FDCE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47485D70-34CA-4767-A25A-B0BBEA8D4E3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c5579d5-a01f-4a8f-91a4-3da86c4ab182"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/router/RiceHackathonFile.xlsx
+++ b/router/RiceHackathonFile.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Compsci\HackRice\router\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D55475-ABC5-4BBD-B455-B29B98C5B79B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8EE069-AACF-4C61-81AB-59E5D111B6E8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="2840" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="4" xr2:uid="{DA872241-5938-4975-B669-1DAED734A321}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{DA872241-5938-4975-B669-1DAED734A321}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Equipment Details" sheetId="2" r:id="rId2"/>
-    <sheet name="Worker Details" sheetId="5" r:id="rId3"/>
+    <sheet name="Worker Details" sheetId="5" r:id="rId2"/>
+    <sheet name="Equipment Details" sheetId="2" r:id="rId3"/>
     <sheet name="Facility Details" sheetId="4" r:id="rId4"/>
     <sheet name="Work Order Examples" sheetId="3" r:id="rId5"/>
   </sheets>
@@ -801,11 +801,152 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B3A477-3811-4597-BD1C-66A9637D67CF}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="26.81640625" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0DB88B-AC6A-43C1-9AFD-1A96E9A23D3F}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1107,153 +1248,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B3A477-3811-4597-BD1C-66A9637D67CF}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="26.81640625" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDDDD84-14EF-49D0-B1AB-E471924F6A4A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1337,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F32FF5-CC5C-41C1-BDFE-3C5288199775}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2149,6 +2149,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DDC701B4642764F93B0C996834AF5C7" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7ba1005b60fccd023c3316c347e5bac5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6c5579d5-a01f-4a8f-91a4-3da86c4ab182" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4f48eed001f7d7f93980a4b2998ff55" ns2:_="">
     <xsd:import namespace="6c5579d5-a01f-4a8f-91a4-3da86c4ab182"/>
@@ -2280,22 +2295,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47485D70-34CA-4767-A25A-B0BBEA8D4E3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c5579d5-a01f-4a8f-91a4-3da86c4ab182"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4207C8EB-E1DD-4B19-B2B0-6A4E9013FDCE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{817E8B64-DE18-4527-80CB-2270F2F430A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2311,28 +2335,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4207C8EB-E1DD-4B19-B2B0-6A4E9013FDCE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47485D70-34CA-4767-A25A-B0BBEA8D4E3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c5579d5-a01f-4a8f-91a4-3da86c4ab182"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/router/RiceHackathonFile.xlsx
+++ b/router/RiceHackathonFile.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Compsci\HackRice\router\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AnthonyChang/Desktop/CompSciStuff/HackRice/router/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8EE069-AACF-4C61-81AB-59E5D111B6E8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{DA872241-5938-4975-B669-1DAED734A321}"/>
+    <workbookView xWindow="400" yWindow="460" windowWidth="19420" windowHeight="10420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -22,9 +21,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Work Order Examples'!$L$16:$M$35</definedName>
   </definedNames>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -343,7 +348,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
@@ -727,22 +732,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17702070-7F29-4ACF-8564-02FD1CB57B43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -770,7 +775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -784,12 +789,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>13</v>
       </c>
@@ -801,20 +806,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B3A477-3811-4597-BD1C-66A9637D67CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.81640625" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -825,7 +830,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -836,7 +841,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -847,7 +852,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -858,7 +863,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -869,7 +874,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -880,7 +885,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -891,7 +896,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -902,7 +907,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -913,7 +918,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -924,7 +929,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -942,21 +947,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0DB88B-AC6A-43C1-9AFD-1A96E9A23D3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -982,7 +987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1008,7 +1013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1034,7 +1039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1060,7 +1065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1086,7 +1091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1112,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1138,7 +1143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1164,7 +1169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1190,7 +1195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1216,7 +1221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1249,20 +1254,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDDDD84-14EF-49D0-B1AB-E471924F6A4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1278,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1284,7 +1289,7 @@
         <v>-95.372003000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1295,7 +1300,7 @@
         <v>-95.409329</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1306,7 +1311,7 @@
         <v>-95.401964000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1317,7 +1322,7 @@
         <v>-95.399359000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1334,26 +1339,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F32FF5-CC5C-41C1-BDFE-3C5288199775}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
@@ -1376,7 +1381,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1399,7 +1404,7 @@
         <v>43357.925000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1423,7 +1428,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1447,7 +1452,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1470,7 +1475,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1493,7 +1498,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1516,7 +1521,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1541,7 +1546,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1566,7 +1571,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1589,7 +1594,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1010</v>
       </c>
@@ -1612,7 +1617,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1011</v>
       </c>
@@ -1635,7 +1640,7 @@
         <v>43358.593055555553</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1012</v>
       </c>
@@ -1662,7 +1667,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1013</v>
       </c>
@@ -1688,7 +1693,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1014</v>
       </c>
@@ -1714,7 +1719,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1015</v>
       </c>
@@ -1740,7 +1745,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1016</v>
       </c>
@@ -1766,7 +1771,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1017</v>
       </c>
@@ -1791,7 +1796,7 @@
       <c r="K18" s="6"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1018</v>
       </c>
@@ -1816,7 +1821,7 @@
       <c r="K19" s="6"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1019</v>
       </c>
@@ -1841,7 +1846,7 @@
       <c r="K20" s="6"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1020</v>
       </c>
@@ -1867,7 +1872,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1021</v>
       </c>
@@ -1892,7 +1897,7 @@
       <c r="K22" s="6"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1022</v>
       </c>
@@ -1915,7 +1920,7 @@
         <v>43358.121527777781</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1023</v>
       </c>
@@ -1938,7 +1943,7 @@
         <v>43356.708333333336</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1024</v>
       </c>
@@ -1962,7 +1967,7 @@
       </c>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1025</v>
       </c>
@@ -1985,7 +1990,7 @@
         <v>43357.30972222222</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1026</v>
       </c>
@@ -2008,7 +2013,7 @@
         <v>43355.398611111108</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1027</v>
       </c>
@@ -2031,7 +2036,7 @@
         <v>43358.538194444445</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1028</v>
       </c>
@@ -2055,7 +2060,7 @@
       </c>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1029</v>
       </c>
@@ -2079,7 +2084,7 @@
       </c>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1030</v>
       </c>
@@ -2096,50 +2101,50 @@
         <v>2</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G31" s="9">
         <v>43356.431250000001</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
     </row>
-    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
     </row>
   </sheetData>
@@ -2149,21 +2154,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DDC701B4642764F93B0C996834AF5C7" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7ba1005b60fccd023c3316c347e5bac5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6c5579d5-a01f-4a8f-91a4-3da86c4ab182" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4f48eed001f7d7f93980a4b2998ff55" ns2:_="">
     <xsd:import namespace="6c5579d5-a01f-4a8f-91a4-3da86c4ab182"/>
@@ -2295,31 +2285,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47485D70-34CA-4767-A25A-B0BBEA8D4E3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c5579d5-a01f-4a8f-91a4-3da86c4ab182"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4207C8EB-E1DD-4B19-B2B0-6A4E9013FDCE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{817E8B64-DE18-4527-80CB-2270F2F430A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2335,4 +2316,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4207C8EB-E1DD-4B19-B2B0-6A4E9013FDCE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47485D70-34CA-4767-A25A-B0BBEA8D4E3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c5579d5-a01f-4a8f-91a4-3da86c4ab182"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/router/RiceHackathonFile.xlsx
+++ b/router/RiceHackathonFile.xlsx
@@ -2101,7 +2101,7 @@
         <v>2</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G31" s="9">
         <v>43356.431250000001</v>

--- a/router/RiceHackathonFile.xlsx
+++ b/router/RiceHackathonFile.xlsx
@@ -2101,7 +2101,7 @@
         <v>2</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G31" s="9">
         <v>43356.431250000001</v>
